--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.3741485051469624</v>
+        <v>-0.02238020961026781</v>
       </c>
       <c r="C2">
-        <v>0.4341279119279744</v>
+        <v>0.02295959455029462</v>
       </c>
       <c r="D2">
-        <v>0.414369882729582</v>
+        <v>0.02718525952902182</v>
       </c>
       <c r="E2">
-        <v>0.3083036192098343</v>
+        <v>0.02576683635117898</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.17583842082149</v>
+        <v>-0.8920911016749677</v>
       </c>
       <c r="C3">
-        <v>1.248185732212586</v>
+        <v>0.6937159268626201</v>
       </c>
       <c r="D3">
-        <v>1.235744399404663</v>
+        <v>0.9859834287596305</v>
       </c>
       <c r="E3">
-        <v>0.2460239490364393</v>
+        <v>0.4318185652162305</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.01896917052592017</v>
+        <v>-0.8013500386273654</v>
       </c>
       <c r="C4">
-        <v>0.0238672302193678</v>
+        <v>0.9437187638778237</v>
       </c>
       <c r="D4">
-        <v>0.02570058197188967</v>
+        <v>0.9841931184930942</v>
       </c>
       <c r="E4">
-        <v>0.02012694478786024</v>
+        <v>0.1524980397399217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.3084001662635933</v>
+        <v>-0.0212167886305063</v>
       </c>
       <c r="C5">
-        <v>0.2341034716424515</v>
+        <v>0.02390412644494829</v>
       </c>
       <c r="D5">
-        <v>0.3868271498011905</v>
+        <v>0.02821636553028112</v>
       </c>
       <c r="E5">
-        <v>0.4285565080559961</v>
+        <v>0.02127929450070541</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2067093388945448</v>
+        <v>-0.02087028603570286</v>
       </c>
       <c r="C6">
-        <v>0.2245273002885098</v>
+        <v>0.02408769228914702</v>
       </c>
       <c r="D6">
-        <v>0.2164919666973201</v>
+        <v>0.02461627151813081</v>
       </c>
       <c r="E6">
-        <v>0.1536264278439889</v>
+        <v>0.02461100997850226</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.02332971028146038</v>
+        <v>-0.01635229487040383</v>
       </c>
       <c r="C7">
-        <v>0.02720272714533401</v>
+        <v>0.01927223165303875</v>
       </c>
       <c r="D7">
-        <v>0.03030062890069024</v>
+        <v>0.02674471886472128</v>
       </c>
       <c r="E7">
-        <v>0.01876133840307306</v>
+        <v>0.01792556403400628</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02251766383254406</v>
+        <v>-0.1020800613037641</v>
       </c>
       <c r="C8">
-        <v>0.02802572053291062</v>
+        <v>0.1663378812853074</v>
       </c>
       <c r="D8">
-        <v>0.02966983669336326</v>
+        <v>0.1585474383429975</v>
       </c>
       <c r="E8">
-        <v>0.01637823745864216</v>
+        <v>0.09654937970596417</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.8146148785564192</v>
+        <v>-0.3798028502737343</v>
       </c>
       <c r="C9">
-        <v>0.8931921526793666</v>
+        <v>0.5141433763122181</v>
       </c>
       <c r="D9">
-        <v>0.9811020748002504</v>
+        <v>0.4731025466911291</v>
       </c>
       <c r="E9">
-        <v>0.4077055001287409</v>
+        <v>0.2297436813226839</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.023057154657351</v>
+        <v>-0.4865266802490169</v>
       </c>
       <c r="C10">
-        <v>0.02857560230216869</v>
+        <v>0.5934340461840431</v>
       </c>
       <c r="D10">
-        <v>0.0214951524971917</v>
+        <v>0.5759981444530305</v>
       </c>
       <c r="E10">
-        <v>0.02652826249426311</v>
+        <v>0.4013926163432938</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1428865853335735</v>
+        <v>-0.5349070871353002</v>
       </c>
       <c r="C11">
-        <v>0.2066210276488051</v>
+        <v>0.7541152415024805</v>
       </c>
       <c r="D11">
-        <v>0.1589256884604643</v>
+        <v>0.6113545835915848</v>
       </c>
       <c r="E11">
-        <v>0.1228119625781235</v>
+        <v>0.4967358978875114</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.01706904455391219</v>
+        <v>-0.5391881993709878</v>
       </c>
       <c r="C12">
-        <v>0.01927871793188757</v>
+        <v>0.6413344210930783</v>
       </c>
       <c r="D12">
-        <v>0.02967983118727414</v>
+        <v>0.6476900709428766</v>
       </c>
       <c r="E12">
-        <v>0.01480408494705346</v>
+        <v>0.2846425983484968</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.01623009451593242</v>
+        <v>-0.3558041858764948</v>
       </c>
       <c r="C13">
-        <v>0.01988078532044884</v>
+        <v>0.3976150387889947</v>
       </c>
       <c r="D13">
-        <v>0.02783220975106773</v>
+        <v>0.3994010476424705</v>
       </c>
       <c r="E13">
-        <v>0.01509719063513791</v>
+        <v>0.3829836690733736</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.002062748962586894</v>
+        <v>-0.6665030114370035</v>
       </c>
       <c r="C14">
-        <v>0.002891057966507597</v>
+        <v>0.6548694120258868</v>
       </c>
       <c r="D14">
-        <v>0.002777403446437838</v>
+        <v>0.6784095378898739</v>
       </c>
       <c r="E14">
-        <v>0.001581503250894888</v>
+        <v>0.6489636807861351</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.5485476653200605</v>
+        <v>-0.696508550389735</v>
       </c>
       <c r="C15">
-        <v>0.7245321772839176</v>
+        <v>0.5044511856452907</v>
       </c>
       <c r="D15">
-        <v>0.504070200407623</v>
+        <v>0.9793655806659376</v>
       </c>
       <c r="E15">
-        <v>0.6203841162706822</v>
+        <v>0.42110685367799</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.5356719110788852</v>
+        <v>-0.4219577118880884</v>
       </c>
       <c r="C16">
-        <v>0.6351251566260139</v>
+        <v>0.6466455932885657</v>
       </c>
       <c r="D16">
-        <v>0.4240324993966522</v>
+        <v>0.404051284527623</v>
       </c>
       <c r="E16">
-        <v>0.3614422077591137</v>
+        <v>0.3034405275361001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.3581919514977739</v>
+        <v>-0.6259922127218747</v>
       </c>
       <c r="C17">
-        <v>0.3412564456343307</v>
+        <v>1.035219294478107</v>
       </c>
       <c r="D17">
-        <v>0.4797879382232591</v>
+        <v>0.4206484692791761</v>
       </c>
       <c r="E17">
-        <v>0.2977460665194445</v>
+        <v>0.4248121620988169</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.5270561023797242</v>
+        <v>-0.7343788462943953</v>
       </c>
       <c r="C18">
-        <v>0.5906187062402039</v>
+        <v>1.096069066350424</v>
       </c>
       <c r="D18">
-        <v>0.8174588027322257</v>
+        <v>0.6703093200432421</v>
       </c>
       <c r="E18">
-        <v>0.3437357584624119</v>
+        <v>0.4720600115465717</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.7077614386664541</v>
+        <v>-0.02324017179794494</v>
       </c>
       <c r="C19">
-        <v>0.5622953680312961</v>
+        <v>0.0276555952495735</v>
       </c>
       <c r="D19">
-        <v>0.6855422520261749</v>
+        <v>0.02200060590103445</v>
       </c>
       <c r="E19">
-        <v>0.5420889924341824</v>
+        <v>0.02732676454637238</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.02249509662790956</v>
+        <v>-0.4180215230191823</v>
       </c>
       <c r="C20">
-        <v>0.02746679555880025</v>
+        <v>0.5903571234131393</v>
       </c>
       <c r="D20">
-        <v>0.02910991551419902</v>
+        <v>0.4249469597836296</v>
       </c>
       <c r="E20">
-        <v>0.01819727375759624</v>
+        <v>0.372365465405589</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.002232572964869983</v>
+        <v>-0.002149578598974825</v>
       </c>
       <c r="C21">
-        <v>0.002317993715084495</v>
+        <v>0.002323727003358719</v>
       </c>
       <c r="D21">
-        <v>0.002596164906892277</v>
+        <v>0.003051464173222587</v>
       </c>
       <c r="E21">
-        <v>0.002812092733593805</v>
+        <v>0.002142880499118497</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.02163990399145101</v>
+        <v>-1.11428742066992</v>
       </c>
       <c r="C22">
-        <v>0.02857695793646351</v>
+        <v>0.8820001331770212</v>
       </c>
       <c r="D22">
-        <v>0.0275709401511571</v>
+        <v>1.464670710596898</v>
       </c>
       <c r="E22">
-        <v>0.01691377918243188</v>
+        <v>0.3639580646655383</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.7212804315401879</v>
+        <v>-0.01709575658162041</v>
       </c>
       <c r="C23">
-        <v>0.8889572082249123</v>
+        <v>0.02351241830526191</v>
       </c>
       <c r="D23">
-        <v>0.7166800700948531</v>
+        <v>0.0249116190416353</v>
       </c>
       <c r="E23">
-        <v>0.3302435052607243</v>
+        <v>0.01732409653003391</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.002755481905903095</v>
+        <v>-0.02387004430397113</v>
       </c>
       <c r="C24">
-        <v>0.002922032684738486</v>
+        <v>0.02420033093960388</v>
       </c>
       <c r="D24">
-        <v>0.00358766607650004</v>
+        <v>0.02995745314355346</v>
       </c>
       <c r="E24">
-        <v>0.001865604343649078</v>
+        <v>0.02378073834031341</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.01488105987719315</v>
+        <v>-0.166463113930178</v>
       </c>
       <c r="C25">
-        <v>0.02043909037195978</v>
+        <v>0.188050592549194</v>
       </c>
       <c r="D25">
-        <v>0.02535276356262138</v>
+        <v>0.1713199589915296</v>
       </c>
       <c r="E25">
-        <v>0.01503054628417822</v>
+        <v>0.1770141964627476</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.7174087979597512</v>
+        <v>-0.01977706727985316</v>
       </c>
       <c r="C26">
-        <v>0.9008204075867278</v>
+        <v>0.02286699633068443</v>
       </c>
       <c r="D26">
-        <v>0.9621395350977476</v>
+        <v>0.02642557085458544</v>
       </c>
       <c r="E26">
-        <v>0.242307670401584</v>
+        <v>0.0218449924300428</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.5032679093872922</v>
+        <v>-0.8265960109952923</v>
       </c>
       <c r="C27">
-        <v>0.743624155498946</v>
+        <v>1.077497922177642</v>
       </c>
       <c r="D27">
-        <v>0.352271334443753</v>
+        <v>0.7403447848704063</v>
       </c>
       <c r="E27">
-        <v>0.3651442579689563</v>
+        <v>0.2402253530812368</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.02211386448757719</v>
+        <v>-0.1194363392657689</v>
       </c>
       <c r="C28">
-        <v>0.02876048550407805</v>
+        <v>0.1127053968516064</v>
       </c>
       <c r="D28">
-        <v>0.02523189691616502</v>
+        <v>0.1984770185966638</v>
       </c>
       <c r="E28">
-        <v>0.02090984268699396</v>
+        <v>0.1389714007403087</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.7311139076633359</v>
+        <v>-1.057844120150457</v>
       </c>
       <c r="C29">
-        <v>1.229299353876511</v>
+        <v>1.453881439302477</v>
       </c>
       <c r="D29">
-        <v>0.3801989934083496</v>
+        <v>0.5979733709769164</v>
       </c>
       <c r="E29">
-        <v>0.3850831618335938</v>
+        <v>0.5123541924888554</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.5560874432406523</v>
+        <v>-0.02126750176488138</v>
       </c>
       <c r="C30">
-        <v>0.7851772461390257</v>
+        <v>0.02365543637595315</v>
       </c>
       <c r="D30">
-        <v>0.6518337094524805</v>
+        <v>0.02875261790733586</v>
       </c>
       <c r="E30">
-        <v>0.3450842016968755</v>
+        <v>0.02097720159313878</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.01997389165091278</v>
+        <v>-0.3864517580624645</v>
       </c>
       <c r="C31">
-        <v>0.02365143643322201</v>
+        <v>0.523228578498682</v>
       </c>
       <c r="D31">
-        <v>0.02826618006840609</v>
+        <v>0.3887579321462948</v>
       </c>
       <c r="E31">
-        <v>0.01894326963468431</v>
+        <v>0.2715189172138189</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.510986178502127</v>
+        <v>-0.1202916356265182</v>
       </c>
       <c r="C32">
-        <v>0.4956661811803429</v>
+        <v>0.1916031813496636</v>
       </c>
       <c r="D32">
-        <v>0.6689790406255357</v>
+        <v>0.1387307886365702</v>
       </c>
       <c r="E32">
-        <v>0.2138832300838583</v>
+        <v>0.1247058555396832</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3425652185948923</v>
+        <v>-0.4993082437854585</v>
       </c>
       <c r="C33">
-        <v>0.3319934323534023</v>
+        <v>0.8690836702491336</v>
       </c>
       <c r="D33">
-        <v>0.4158835464907113</v>
+        <v>0.4220509997975139</v>
       </c>
       <c r="E33">
-        <v>0.386871444761649</v>
+        <v>0.3643174029564141</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.3573580592523345</v>
+        <v>-0.400787324790093</v>
       </c>
       <c r="C34">
-        <v>0.2278558660111442</v>
+        <v>0.3975527925767662</v>
       </c>
       <c r="D34">
-        <v>0.5451764683372231</v>
+        <v>0.426621487964013</v>
       </c>
       <c r="E34">
-        <v>0.31648646936033</v>
+        <v>0.3877522673661276</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.002862139151181484</v>
+        <v>-0.7270029372681736</v>
       </c>
       <c r="C35">
-        <v>0.002311752673918237</v>
+        <v>0.8764065571232266</v>
       </c>
       <c r="D35">
-        <v>0.003568343618008733</v>
+        <v>0.7791325835035807</v>
       </c>
       <c r="E35">
-        <v>0.002785125456944452</v>
+        <v>0.3786114560970781</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.02195269238444475</v>
+        <v>-0.002946960586620587</v>
       </c>
       <c r="C36">
-        <v>0.02197905401589127</v>
+        <v>0.003346717762688928</v>
       </c>
       <c r="D36">
-        <v>0.02909271712876081</v>
+        <v>0.003409157683671579</v>
       </c>
       <c r="E36">
-        <v>0.02355879391079637</v>
+        <v>0.001931800941239437</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.1355600087931975</v>
+        <v>-0.8280384852814554</v>
       </c>
       <c r="C37">
-        <v>0.1481591326149857</v>
+        <v>0.7266138688497544</v>
       </c>
       <c r="D37">
-        <v>0.1982795902760082</v>
+        <v>0.9834070547801488</v>
       </c>
       <c r="E37">
-        <v>0.1337186415285614</v>
+        <v>0.5180320322855052</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.02053932058673922</v>
+        <v>-0.02077780374427829</v>
       </c>
       <c r="C38">
-        <v>0.02859466403062839</v>
+        <v>0.02466338901411926</v>
       </c>
       <c r="D38">
-        <v>0.02619523840741677</v>
+        <v>0.0280678269082974</v>
       </c>
       <c r="E38">
-        <v>0.01624214922194549</v>
+        <v>0.019712108211437</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1499859367041834</v>
+        <v>-0.02336671244807525</v>
       </c>
       <c r="C39">
-        <v>0.1685293156384465</v>
+        <v>0.02874585097033218</v>
       </c>
       <c r="D39">
-        <v>0.1991511991269086</v>
+        <v>0.02778842174137669</v>
       </c>
       <c r="E39">
-        <v>0.1362813415992828</v>
+        <v>0.02060636281202968</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.152761448089772</v>
+        <v>-0.5433829826831554</v>
       </c>
       <c r="C40">
-        <v>0.1580898502825107</v>
+        <v>0.7043327872178518</v>
       </c>
       <c r="D40">
-        <v>0.2119818354531586</v>
+        <v>0.5543944508397792</v>
       </c>
       <c r="E40">
-        <v>0.1304969868428674</v>
+        <v>0.6716254482622914</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.8165921062480727</v>
+        <v>-0.4929781012122001</v>
       </c>
       <c r="C41">
-        <v>0.8596609832579352</v>
+        <v>0.5270237087479805</v>
       </c>
       <c r="D41">
-        <v>0.934508639878019</v>
+        <v>0.6373811422767622</v>
       </c>
       <c r="E41">
-        <v>0.4838031692666501</v>
+        <v>0.3675216661419544</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.878331901868635</v>
+        <v>-0.01807501386950929</v>
       </c>
       <c r="C42">
-        <v>1.108688552113425</v>
+        <v>0.02093731849258926</v>
       </c>
       <c r="D42">
-        <v>0.9493217878723477</v>
+        <v>0.02420400619549</v>
       </c>
       <c r="E42">
-        <v>0.3155153590044328</v>
+        <v>0.0231521617861116</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.478040236039652</v>
+        <v>-0.627916375992962</v>
       </c>
       <c r="C43">
-        <v>0.4257701851193358</v>
+        <v>0.7609952380969934</v>
       </c>
       <c r="D43">
-        <v>0.6670504826728988</v>
+        <v>0.6276208467740594</v>
       </c>
       <c r="E43">
-        <v>0.2103204547605342</v>
+        <v>0.4978960532333622</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.938748282681366</v>
+        <v>-0.01907438892288925</v>
       </c>
       <c r="C44">
-        <v>0.9046263521080711</v>
+        <v>0.02496618740795886</v>
       </c>
       <c r="D44">
-        <v>1.267121114528472</v>
+        <v>0.02620959674119653</v>
       </c>
       <c r="E44">
-        <v>0.1805384810482914</v>
+        <v>0.01824109384333208</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.1207665580782298</v>
+        <v>-0.7269294158628621</v>
       </c>
       <c r="C45">
-        <v>0.1476336441878331</v>
+        <v>0.5756854199860273</v>
       </c>
       <c r="D45">
-        <v>0.1706647072336433</v>
+        <v>0.8703076120250433</v>
       </c>
       <c r="E45">
-        <v>0.1458905111304729</v>
+        <v>0.3440930650080316</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.5318584898096427</v>
+        <v>-0.7131584074005293</v>
       </c>
       <c r="C46">
-        <v>0.6379562520494849</v>
+        <v>0.7519679751433023</v>
       </c>
       <c r="D46">
-        <v>0.4267229670410503</v>
+        <v>0.931479850382781</v>
       </c>
       <c r="E46">
-        <v>0.3324066881363916</v>
+        <v>0.1911724186836809</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.003350269235995483</v>
+        <v>-0.6415720424261329</v>
       </c>
       <c r="C47">
-        <v>0.00297943763795743</v>
+        <v>0.6467765743451297</v>
       </c>
       <c r="D47">
-        <v>0.003716087875205186</v>
+        <v>0.7386358001248614</v>
       </c>
       <c r="E47">
-        <v>0.002747478625887393</v>
+        <v>0.3558722213415979</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.02192688105428134</v>
+        <v>-0.5590653170550234</v>
       </c>
       <c r="C48">
-        <v>0.02314301861155914</v>
+        <v>0.7363421014500984</v>
       </c>
       <c r="D48">
-        <v>0.02956570713446827</v>
+        <v>0.4928006148490432</v>
       </c>
       <c r="E48">
-        <v>0.02184151861703544</v>
+        <v>0.3794792134814234</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.02000086826949874</v>
+        <v>-0.5846208886043707</v>
       </c>
       <c r="C49">
-        <v>0.02462509378279867</v>
+        <v>1.051466347869206</v>
       </c>
       <c r="D49">
-        <v>0.02598858533843318</v>
+        <v>0.3562923621344701</v>
       </c>
       <c r="E49">
-        <v>0.02095797874773088</v>
+        <v>0.3595982627575819</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.1962172778515952</v>
+        <v>-0.1851007638113399</v>
       </c>
       <c r="C50">
-        <v>0.1669431303552019</v>
+        <v>0.175713810366598</v>
       </c>
       <c r="D50">
-        <v>0.2670896390900349</v>
+        <v>0.225356626632334</v>
       </c>
       <c r="E50">
-        <v>0.136753660458406</v>
+        <v>0.1562451911988359</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.02575577002975546</v>
+        <v>-0.5544767542940444</v>
       </c>
       <c r="C51">
-        <v>0.02324815770657935</v>
+        <v>0.8346990151138984</v>
       </c>
       <c r="D51">
-        <v>0.02969176583231627</v>
+        <v>0.5388828014577938</v>
       </c>
       <c r="E51">
-        <v>0.02799080176736665</v>
+        <v>0.296939351641785</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.7894278984528302</v>
+        <v>-0.8639776677489606</v>
       </c>
       <c r="C52">
-        <v>0.7270691642592579</v>
+        <v>1.2214426695086</v>
       </c>
       <c r="D52">
-        <v>0.8717502351252435</v>
+        <v>0.5597744673796359</v>
       </c>
       <c r="E52">
-        <v>0.6048545200329584</v>
+        <v>0.4522225823780711</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.4493041556104845</v>
+        <v>-1.046896583021402</v>
       </c>
       <c r="C53">
-        <v>0.4445649486825353</v>
+        <v>1.325955861792792</v>
       </c>
       <c r="D53">
-        <v>0.5789796898285605</v>
+        <v>0.74180902093322</v>
       </c>
       <c r="E53">
-        <v>0.2538626170221636</v>
+        <v>0.5841191051609341</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.02359998098118356</v>
+        <v>-0.6460435502357755</v>
       </c>
       <c r="C54">
-        <v>0.02643653297691882</v>
+        <v>1.001966504719433</v>
       </c>
       <c r="D54">
-        <v>0.03024861675822613</v>
+        <v>0.4198206828024029</v>
       </c>
       <c r="E54">
-        <v>0.02057006014954446</v>
+        <v>0.4310425268922448</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.6498652629925528</v>
+        <v>-0.1672241040280311</v>
       </c>
       <c r="C55">
-        <v>0.5967291205681492</v>
+        <v>0.2127197127604705</v>
       </c>
       <c r="D55">
-        <v>0.7576501621053491</v>
+        <v>0.1657429035080862</v>
       </c>
       <c r="E55">
-        <v>0.4638406997263819</v>
+        <v>0.1596227465509288</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.493505377403279</v>
+        <v>-0.4735972251428454</v>
       </c>
       <c r="C56">
-        <v>0.8176285190151342</v>
+        <v>0.6027714847864449</v>
       </c>
       <c r="D56">
-        <v>0.4448646257858767</v>
+        <v>0.5537787004553439</v>
       </c>
       <c r="E56">
-        <v>0.443620155463879</v>
+        <v>0.3216178556689246</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.01748466458237202</v>
+        <v>-0.2781878479332546</v>
       </c>
       <c r="C57">
-        <v>0.01885460819921539</v>
+        <v>0.4250217270669884</v>
       </c>
       <c r="D57">
-        <v>0.02656109709463842</v>
+        <v>0.3383153792909088</v>
       </c>
       <c r="E57">
-        <v>0.02104352541320681</v>
+        <v>0.2608959870736454</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.5548853714201836</v>
+        <v>-0.4841859742800608</v>
       </c>
       <c r="C58">
-        <v>0.512197676825605</v>
+        <v>0.6679930768664627</v>
       </c>
       <c r="D58">
-        <v>0.6765341449009078</v>
+        <v>0.4067075676036187</v>
       </c>
       <c r="E58">
-        <v>0.5007569145607141</v>
+        <v>0.4266704863044543</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.451136227419779</v>
+        <v>-0.3161183216852391</v>
       </c>
       <c r="C59">
-        <v>0.4364912446690596</v>
+        <v>0.4372090592890044</v>
       </c>
       <c r="D59">
-        <v>0.5586240170190558</v>
+        <v>0.3849755569301166</v>
       </c>
       <c r="E59">
-        <v>0.3145179594160002</v>
+        <v>0.2639994802789875</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.3295622651944407</v>
+        <v>-0.5805955681392653</v>
       </c>
       <c r="C60">
-        <v>0.5208797779345372</v>
+        <v>0.8815480639351684</v>
       </c>
       <c r="D60">
-        <v>0.3314003127898037</v>
+        <v>0.420109254913753</v>
       </c>
       <c r="E60">
-        <v>0.2236386032010661</v>
+        <v>0.4690225971204607</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.001872151942851232</v>
+        <v>-0.3787562442666075</v>
       </c>
       <c r="C61">
-        <v>0.002632453403762095</v>
+        <v>0.4263436586964979</v>
       </c>
       <c r="D61">
-        <v>0.002490031325496521</v>
+        <v>0.3643883917292275</v>
       </c>
       <c r="E61">
-        <v>0.001935057706313674</v>
+        <v>0.3834356897914327</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.5257949402768816</v>
+        <v>-0.2356533757037414</v>
       </c>
       <c r="C62">
-        <v>0.5422158513042631</v>
+        <v>0.3646755326690333</v>
       </c>
       <c r="D62">
-        <v>0.5126416847528991</v>
+        <v>0.3696332349952525</v>
       </c>
       <c r="E62">
-        <v>0.3244093919922968</v>
+        <v>0.183565300310244</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.216908077179457</v>
+        <v>-0.3250672424686533</v>
       </c>
       <c r="C63">
-        <v>1.409804644875198</v>
+        <v>0.3840171404275893</v>
       </c>
       <c r="D63">
-        <v>1.435692169281608</v>
+        <v>0.4884455706240585</v>
       </c>
       <c r="E63">
-        <v>0.3477139750901911</v>
+        <v>0.2702210488628166</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.02093447951917691</v>
+        <v>-1.201839689589597</v>
       </c>
       <c r="C64">
-        <v>0.02454071675246181</v>
+        <v>0.9745244214809635</v>
       </c>
       <c r="D64">
-        <v>0.02939320864008094</v>
+        <v>1.614714703280947</v>
       </c>
       <c r="E64">
-        <v>0.01840782719260942</v>
+        <v>0.09376078829277018</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.1786044483807664</v>
+        <v>-0.0164246749137238</v>
       </c>
       <c r="C65">
-        <v>0.2128179715196395</v>
+        <v>0.02118147519434277</v>
       </c>
       <c r="D65">
-        <v>0.1934082011158142</v>
+        <v>0.0263498560030693</v>
       </c>
       <c r="E65">
-        <v>0.1519222047963569</v>
+        <v>0.0165619584489578</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-1.008809878878786</v>
+        <v>-0.1476266438200083</v>
       </c>
       <c r="C66">
-        <v>1.057572743918402</v>
+        <v>0.2092941515161762</v>
       </c>
       <c r="D66">
-        <v>1.158017715863479</v>
+        <v>0.182803576184205</v>
       </c>
       <c r="E66">
-        <v>0.355982074269105</v>
+        <v>0.1128852404969403</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.7365455803706532</v>
+        <v>-0.4889383725967054</v>
       </c>
       <c r="C67">
-        <v>0.9571785070028711</v>
+        <v>0.542571842399479</v>
       </c>
       <c r="D67">
-        <v>0.7890413898498773</v>
+        <v>0.6600799313720941</v>
       </c>
       <c r="E67">
-        <v>0.4198246538517903</v>
+        <v>0.3060683787579173</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.02308000723692809</v>
+        <v>-0.3714854405018964</v>
       </c>
       <c r="C68">
-        <v>0.0254467986390558</v>
+        <v>0.4728489858374523</v>
       </c>
       <c r="D68">
-        <v>0.03053083132302986</v>
+        <v>0.432648298755365</v>
       </c>
       <c r="E68">
-        <v>0.02018714586893799</v>
+        <v>0.3333087926727462</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.147995791735372</v>
+        <v>-0.02031706501704028</v>
       </c>
       <c r="C69">
-        <v>0.1719074676966398</v>
+        <v>0.02291016912684921</v>
       </c>
       <c r="D69">
-        <v>0.2038682963320989</v>
+        <v>0.02735318191244833</v>
       </c>
       <c r="E69">
-        <v>0.1216101432684104</v>
+        <v>0.02183469754060873</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.940861934704568</v>
+        <v>-0.4102733751510077</v>
       </c>
       <c r="C70">
-        <v>1.062674485642292</v>
+        <v>0.4683948627765605</v>
       </c>
       <c r="D70">
-        <v>1.039124990715893</v>
+        <v>0.5432391231065604</v>
       </c>
       <c r="E70">
-        <v>0.5138590683616353</v>
+        <v>0.2923244675863499</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.02241040200117847</v>
+        <v>-0.4212104409805098</v>
       </c>
       <c r="C71">
-        <v>0.02985280756446019</v>
+        <v>0.7126632842472611</v>
       </c>
       <c r="D71">
-        <v>0.02726438867116802</v>
+        <v>0.5753947161977337</v>
       </c>
       <c r="E71">
-        <v>0.01684120129027337</v>
+        <v>0.2996969797024507</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.02079051484490717</v>
+        <v>-0.02567965234399054</v>
       </c>
       <c r="C72">
-        <v>0.02505941577387364</v>
+        <v>0.02760872491588166</v>
       </c>
       <c r="D72">
-        <v>0.0277216935387627</v>
+        <v>0.03032490851276115</v>
       </c>
       <c r="E72">
-        <v>0.0200072846222881</v>
+        <v>0.02280364743185219</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.6723614232445397</v>
+        <v>-0.0213676290929686</v>
       </c>
       <c r="C73">
-        <v>0.9496871073172878</v>
+        <v>0.02485423437232863</v>
       </c>
       <c r="D73">
-        <v>0.5164223637090332</v>
+        <v>0.02575374530553225</v>
       </c>
       <c r="E73">
-        <v>0.3888584296889996</v>
+        <v>0.02356793159016979</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.3309586472425703</v>
+        <v>-1.063531963862466</v>
       </c>
       <c r="C74">
-        <v>0.4440943600876497</v>
+        <v>0.8112129918191124</v>
       </c>
       <c r="D74">
-        <v>0.4351045706281035</v>
+        <v>1.255922390044285</v>
       </c>
       <c r="E74">
-        <v>0.1905718649961758</v>
+        <v>0.3798497607391614</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.074953460121311</v>
+        <v>-0.3770010097002836</v>
       </c>
       <c r="C75">
-        <v>1.156505087496718</v>
+        <v>0.647532762642004</v>
       </c>
       <c r="D75">
-        <v>1.242549670414411</v>
+        <v>0.3523384004851008</v>
       </c>
       <c r="E75">
-        <v>0.4472366120949992</v>
+        <v>0.3302751508152053</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-1.782332974438919</v>
+        <v>-0.002820161975367091</v>
       </c>
       <c r="C76">
-        <v>1.341394913027931</v>
+        <v>0.002589906750619566</v>
       </c>
       <c r="D76">
-        <v>2.080530667427472</v>
+        <v>0.003336855772957477</v>
       </c>
       <c r="E76">
-        <v>0.2275471884944517</v>
+        <v>0.002760178891404516</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.02109151985831074</v>
+        <v>-0.01832230371964842</v>
       </c>
       <c r="C77">
-        <v>0.02576175829889985</v>
+        <v>0.02772457176991886</v>
       </c>
       <c r="D77">
-        <v>0.02594473618977013</v>
+        <v>0.0229244518656588</v>
       </c>
       <c r="E77">
-        <v>0.0219145232550938</v>
+        <v>0.01698402355915982</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.6426901236353757</v>
+        <v>-0.02230487255097084</v>
       </c>
       <c r="C78">
-        <v>0.888386823757523</v>
+        <v>0.02701989931155002</v>
       </c>
       <c r="D78">
-        <v>0.8024447605857168</v>
+        <v>0.02901023419494581</v>
       </c>
       <c r="E78">
-        <v>0.3139519804657973</v>
+        <v>0.01864356694649601</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.3559262262420846</v>
+        <v>-0.01916624656705028</v>
       </c>
       <c r="C79">
-        <v>0.4214105211084421</v>
+        <v>0.02267528149423752</v>
       </c>
       <c r="D79">
-        <v>0.4064652337049217</v>
+        <v>0.02611101893380085</v>
       </c>
       <c r="E79">
-        <v>0.322836792748153</v>
+        <v>0.02125057188670464</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.02245396905332448</v>
+        <v>-0.4065096787466145</v>
       </c>
       <c r="C80">
-        <v>0.02016545861249747</v>
+        <v>0.6500771100959729</v>
       </c>
       <c r="D80">
-        <v>0.03352635100703719</v>
+        <v>0.594293732185562</v>
       </c>
       <c r="E80">
-        <v>0.01991136870762621</v>
+        <v>0.3953475841627784</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.9442863270538956</v>
+        <v>-0.002822628531790409</v>
       </c>
       <c r="C81">
-        <v>1.227079004462298</v>
+        <v>0.003319159686480985</v>
       </c>
       <c r="D81">
-        <v>0.9104502693799603</v>
+        <v>0.003027059842661921</v>
       </c>
       <c r="E81">
-        <v>0.344600013567155</v>
+        <v>0.002301164129660257</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.986516673969027</v>
+        <v>-0.7196878992721197</v>
       </c>
       <c r="C82">
-        <v>0.8137819682197054</v>
+        <v>0.9008037588448442</v>
       </c>
       <c r="D82">
-        <v>1.331973406518995</v>
+        <v>0.81944283258825</v>
       </c>
       <c r="E82">
-        <v>0.4990611229872259</v>
+        <v>0.3541029859002038</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.5086162501834994</v>
+        <v>-0.02469285589715763</v>
       </c>
       <c r="C83">
-        <v>0.4470968683173622</v>
+        <v>0.02524078944235558</v>
       </c>
       <c r="D83">
-        <v>0.7547810626154651</v>
+        <v>0.03132896243240039</v>
       </c>
       <c r="E83">
-        <v>0.4117002499238276</v>
+        <v>0.02248148318837668</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.01868927334026134</v>
+        <v>-0.9785649489421201</v>
       </c>
       <c r="C84">
-        <v>0.02478356902226801</v>
+        <v>0.8259960567110233</v>
       </c>
       <c r="D84">
-        <v>0.02870012874283695</v>
+        <v>1.392511947111926</v>
       </c>
       <c r="E84">
-        <v>0.01311664321323222</v>
+        <v>0.201587208899237</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.44392899722178</v>
+        <v>-1.022652262881378</v>
       </c>
       <c r="C85">
-        <v>0.5519489942751733</v>
+        <v>1.317663809505792</v>
       </c>
       <c r="D85">
-        <v>0.6646183118219586</v>
+        <v>0.6528572643746321</v>
       </c>
       <c r="E85">
-        <v>0.06692966118342304</v>
+        <v>0.6767455967937331</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.7962305387305604</v>
+        <v>-0.9760783900297465</v>
       </c>
       <c r="C86">
-        <v>0.9017285368894066</v>
+        <v>1.022519393786953</v>
       </c>
       <c r="D86">
-        <v>0.8966744329874344</v>
+        <v>1.141492558451616</v>
       </c>
       <c r="E86">
-        <v>0.3352827354152417</v>
+        <v>0.4588239894928232</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.3342348603405294</v>
+        <v>-0.4587855378720913</v>
       </c>
       <c r="C87">
-        <v>0.4621835162618882</v>
+        <v>0.68424719002977</v>
       </c>
       <c r="D87">
-        <v>0.3854687962773156</v>
+        <v>0.4171493347444292</v>
       </c>
       <c r="E87">
-        <v>0.2721163637610443</v>
+        <v>0.313049889011948</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.4788560577751399</v>
+        <v>-0.669432371195701</v>
       </c>
       <c r="C88">
-        <v>0.8190403862712365</v>
+        <v>0.7472400040680184</v>
       </c>
       <c r="D88">
-        <v>0.3717908951947161</v>
+        <v>0.6361454470541058</v>
       </c>
       <c r="E88">
-        <v>0.472948843462946</v>
+        <v>0.3960337049798826</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.482862445986276</v>
+        <v>-0.3638865127240014</v>
       </c>
       <c r="C89">
-        <v>0.5917892033654282</v>
+        <v>0.3961052132258827</v>
       </c>
       <c r="D89">
-        <v>0.448080122795568</v>
+        <v>0.4449822720086794</v>
       </c>
       <c r="E89">
-        <v>0.4207746222659097</v>
+        <v>0.3287250188261387</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.332504709827083</v>
+        <v>-0.01850534715384719</v>
       </c>
       <c r="C90">
-        <v>1.65099984356186</v>
+        <v>0.02342196073093879</v>
       </c>
       <c r="D90">
-        <v>1.180467389377178</v>
+        <v>0.02554503413739178</v>
       </c>
       <c r="E90">
-        <v>0.4063831225695509</v>
+        <v>0.01973242980345899</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.02780156394215344</v>
+        <v>-0.4128868143827297</v>
       </c>
       <c r="C91">
-        <v>0.03030317838360769</v>
+        <v>0.4454475009159403</v>
       </c>
       <c r="D91">
-        <v>0.03087166830407177</v>
+        <v>0.5843555798982604</v>
       </c>
       <c r="E91">
-        <v>0.02279513960461933</v>
+        <v>0.2511689767721026</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.01911218460377957</v>
+        <v>-0.7438077226744545</v>
       </c>
       <c r="C92">
-        <v>0.02348828627152283</v>
+        <v>0.9223164150230919</v>
       </c>
       <c r="D92">
-        <v>0.02941783254961739</v>
+        <v>0.7831248735010188</v>
       </c>
       <c r="E92">
-        <v>0.01506004291816089</v>
+        <v>0.3807690625734406</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.02208705160096381</v>
+        <v>-1.05335889351559</v>
       </c>
       <c r="C93">
-        <v>0.02806930030464671</v>
+        <v>1.202869985374055</v>
       </c>
       <c r="D93">
-        <v>0.02668051392630377</v>
+        <v>1.197695578820094</v>
       </c>
       <c r="E93">
-        <v>0.01997905889517988</v>
+        <v>0.4892712552220432</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.9353775521885095</v>
+        <v>-0.6866398145392707</v>
       </c>
       <c r="C94">
-        <v>1.100263973161867</v>
+        <v>0.650184599391456</v>
       </c>
       <c r="D94">
-        <v>0.9740534891072963</v>
+        <v>0.7537213593872041</v>
       </c>
       <c r="E94">
-        <v>0.5435837828926017</v>
+        <v>0.4492582306322852</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.02000941681851068</v>
+        <v>-0.01513337803830715</v>
       </c>
       <c r="C95">
-        <v>0.02611334673163024</v>
+        <v>0.02558979668686957</v>
       </c>
       <c r="D95">
-        <v>0.02613202187963477</v>
+        <v>0.02215494224203866</v>
       </c>
       <c r="E95">
-        <v>0.01908289576841413</v>
+        <v>0.01261182299208079</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.01728679889011159</v>
+        <v>-0.523561682102657</v>
       </c>
       <c r="C96">
-        <v>0.02055585125255482</v>
+        <v>0.5535320584486709</v>
       </c>
       <c r="D96">
-        <v>0.0262522049429983</v>
+        <v>0.377656625045323</v>
       </c>
       <c r="E96">
-        <v>0.01946545773392895</v>
+        <v>0.6390074849227931</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.6165662844623252</v>
+        <v>-0.7612149487897082</v>
       </c>
       <c r="C97">
-        <v>0.7391047377625924</v>
+        <v>1.011887413117368</v>
       </c>
       <c r="D97">
-        <v>0.6005648495410225</v>
+        <v>0.7988610840865076</v>
       </c>
       <c r="E97">
-        <v>0.3681086393027423</v>
+        <v>0.3143812807260987</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1676488569927816</v>
+        <v>-0.5859346653824196</v>
       </c>
       <c r="C98">
-        <v>0.2267839556925672</v>
+        <v>0.4868982481825558</v>
       </c>
       <c r="D98">
-        <v>0.1414779358779287</v>
+        <v>0.6837203304492204</v>
       </c>
       <c r="E98">
-        <v>0.1641622092227258</v>
+        <v>0.2818077493681801</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.5094919496434679</v>
+        <v>-0.439542833475941</v>
       </c>
       <c r="C99">
-        <v>0.7248122549346142</v>
+        <v>0.455816008295014</v>
       </c>
       <c r="D99">
-        <v>0.5459043718925941</v>
+        <v>0.6249325550682212</v>
       </c>
       <c r="E99">
-        <v>0.410865621308895</v>
+        <v>0.1797282125674872</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.5707004599073929</v>
+        <v>-0.3245016781443062</v>
       </c>
       <c r="C100">
-        <v>0.659803932989627</v>
+        <v>0.35423882922031</v>
       </c>
       <c r="D100">
-        <v>0.6438866283086463</v>
+        <v>0.470740492875085</v>
       </c>
       <c r="E100">
-        <v>0.3918390235932278</v>
+        <v>0.2468934202761627</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.0294330297238622</v>
+        <v>-0.4748794265818548</v>
       </c>
       <c r="C101">
-        <v>0.03087462096061914</v>
+        <v>0.6212350500580636</v>
       </c>
       <c r="D101">
-        <v>0.03336700588314835</v>
+        <v>0.4475041075267511</v>
       </c>
       <c r="E101">
-        <v>0.02176092308343395</v>
+        <v>0.3206202809317882</v>
       </c>
     </row>
   </sheetData>
